--- a/Practical 4/regress_example_data1.xlsx
+++ b/Practical 4/regress_example_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nmp65_newcastle_ac_uk/Documents/Teaching/2021 - 22/GEO8026/_git/GEO8026_21_22/Practical 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AEF346D-817D-44B4-A65B-7B9483920B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9AEF346D-817D-44B4-A65B-7B9483920B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE77F1C3-A1DF-42B3-8A80-1FB193F523E6}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="4455" windowWidth="21600" windowHeight="11385" xr2:uid="{82B06951-EF41-4485-BD0E-572D57AFF85A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{82B06951-EF41-4485-BD0E-572D57AFF85A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,2866 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Section averaged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$326</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="325"/>
+                <c:pt idx="0">
+                  <c:v>0.19756266498470401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19756266498470401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.202854447077148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20286368473830099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20286368473830099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20286368473830099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20303870074989899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20304442357782901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20304442357782901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20304442357782901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20321814767957699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20321814767957699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20321814767957699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20339187178132501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20344190588281399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20349193998430301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20349193998430301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20349193998430301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20349193998430301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20349193998430301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20950492763206899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.212894225868165</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.212894225868165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21942456223606499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22542403206727901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22754032396031099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23051458207175299</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.231283657160817</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.231283657160817</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.231283657160817</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.232461630566033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23457173548244301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23647621979501501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.236494446171923</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23779398862809401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23877160854173199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23920562907860299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.239793170755596</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.239793170755596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24013317946933299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.242623340711979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24333398128785</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.24468211906281201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24468211906281201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.24517778757512201</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24517778757512201</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24537617692937</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.245805924865759</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.245805924865759</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.245805924865759</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24747196979582201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.24748664896682901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.24748664896682901</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.247677766837445</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.247853347578953</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24786722956885399</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.24806262555959799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.24839886658215099</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.248443282095892</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.248443282095892</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.24927216310698599</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.24927216310698599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.249427678276431</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.24971298236143499</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.24971298236143499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.24972216281234499</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.249730570773331</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.24998662879480399</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.24998662879480399</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.25030526653012702</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.25030526653012702</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.25094319473179399</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.25094319473179399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.25094319473179399</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.25144398452709699</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25179091866331998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.25204552979795303</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.25228457765110601</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.25246378033087902</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.25246378033087902</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.25292351686618503</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25292351686618503</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.25311924842100902</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25325779374309398</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25331497997583302</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.25331497997583302</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.25375292797787102</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.25381889390062101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.25381889390062101</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.25381889390062101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.25381889390062101</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.253965532186403</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.25403623966905398</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.25694606191445002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.25805469577971601</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.25817855656823802</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.25817855656823802</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.25817855656823802</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.25817855656823802</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.25817855656823802</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.25817855656823802</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.25817855656823802</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.26237603599131898</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.262530409840949</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.263030074169331</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.263030074169331</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.26376756102279603</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.26509650555648101</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.27420481642088801</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.27420481642088801</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.27420481642088801</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.27420481642088801</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.27420481642088801</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.27783479059300897</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.27783479059300897</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.27921957316818302</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.28015776236577</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.28015776236577</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.28021223658666</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.28021223658666</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.28038105905456401</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.28149986159555701</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.28219490301116301</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.314271525647775</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.314271525647775</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.33306280647184799</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.33306280647184799</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.33306280647184799</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.33735593166280797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.33735593166280797</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.33735593166280797</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.33754754393805902</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.33754754393805902</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.33773915621330902</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.33878182661733702</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.34016580486247699</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.34147255120720399</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.34213539227371398</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.34213539227371398</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.34350924948874401</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.34350924948874401</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.34363513445469601</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.34363513445469601</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.34530645814286798</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.34988518950873498</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.34988518950873498</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.36768330460075099</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.37264988815360101</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.39089351138717598</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.39143688763869799</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.39143688763869799</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.39348808743638702</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.40178179368352601</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.40644817381716303</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.42145192572331702</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.42849275120264402</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.42849275120264402</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.43209334348219702</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.43325313180187502</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.43630358445649597</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.45203753015015202</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.47232446087178698</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.47480549394250299</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.47797839512108098</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.48361938602034499</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.48900932300081301</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.48909224688908998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.49032523715777498</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.49278079846427297</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.494778305775392</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.495965019211353</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.49913856659800798</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.50018531573698799</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.50100982766375601</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.51151327392962798</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.51151327392962798</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.51553045990677704</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.51901833696127198</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.52095983381424904</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.52201547238694301</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.52262467286730196</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.522678992492418</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.52282825526021404</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.52384359236876199</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.52422513458078002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.52543864275083296</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.52721104552546005</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.52756355635508601</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.52897976295262605</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.53118821770325897</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.53213300481115899</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.53392119385967796</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.53392119385967796</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.53904626154005797</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.54099052572125705</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.54099052572125705</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.54099052572125705</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.541609367373586</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.54327727847652796</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.54482716628989303</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.54631966131690202</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.54661590018114803</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.54931402906764504</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.54931402906764504</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.5533805841892</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.55569683259583702</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.55576478593959699</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.55610805620414805</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.558273273026894</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.55943999858263704</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.55943999858263704</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.56090744572057705</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.56172150347336702</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.562836719368208</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.56395139878445</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.56426428591878897</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.56426428591878897</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.56442774939397999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.56442774939397999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.56449001430122703</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.56449001430122703</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.56510888831841699</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.56692165720955001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.57302435021613696</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.57451088282436602</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.57639156269593195</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.58024545217808199</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.58297611213749301</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.58704013118346199</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.59955294948816296</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.59985104520940302</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.60307130476533499</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.60392588974809402</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.60530778871264401</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.607092992934952</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.60820499640104497</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.61204474231581796</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.61204474231581796</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.61661184855455398</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.61789818304201105</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.62234842938371604</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.62283178074342105</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.62724654069018604</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.63076459654532002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.63674081239758595</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.63674081239758595</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.63679738699881405</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.64201945542497096</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.64406703890582995</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.65448344968494998</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.66034022434307804</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.66464165715276302</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.66464165715276302</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.66520566242508605</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.66978254166996998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.67405943808138502</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.68156776019530696</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.68197731742586998</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.68364653838265599</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.69720379550428602</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.73531625115807597</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.74087533483971701</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.74087533483971701</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.79387848204773703</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.81204132812357799</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.83960844097730702</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.84876503767308498</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.84946414528942205</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.864352341640507</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.86864861462861698</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.86864861462861698</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.88103908018935395</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.88103908018935395</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.88103908018935395</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.88603643112025898</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.91359590362370802</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.93232819910598497</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.93232819910598497</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.93975592889566895</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.93975592889566895</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.99481279811327195</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.0057902881194001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.0092592086105701</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.0237056191078699</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.0459486560956699</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.0459486560956699</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.04645776006693</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.05140943196645</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.05140943196645</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.05193237320408</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.05302595436359</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.0578302299248299</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.07317962565763</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.0750088354982399</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.0750088354982399</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.0750088354982399</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.0805481542844</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.08888503468477</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.09824715214879</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.09824715214879</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.09954823099415</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.18352808363104</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.2686448063525999</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.30315448975137</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.3136554981528199</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.37210923416033</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.47446836854969</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.5019340593306101</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.5116865062246501</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.5197796803618699</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.5207696264237001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.53184654623516</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.54127993966816</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.6224848779519001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.6324116709549601</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.63250166275328</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.63250166275328</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.7037514436391701</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.7564347261428499</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.7872824969941701</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.85405476175899</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2.0360232637700801</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2.1245214209065901</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2.1245214209065901</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2.2135735875164801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$326</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="325"/>
+                <c:pt idx="0">
+                  <c:v>0.22956250334745501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16812412082747299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19859105289173901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.183801629861576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.162768695262174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.182807531634013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.190922761205921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.197457198970971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19022541892727099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17746196151681101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24159737223292399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18893218404680301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.155894460926328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21526586846054099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17324278310645699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.202948351912078</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16428792066591499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19139287847971601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.156300189607125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15658692438470101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19537884316613699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27431943241630102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15574417023698101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20238984229658699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18526414001048599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15474764089507401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20680536176074801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21539731604385301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20423012892747699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.232693218714007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.221404662082585</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.179781003068581</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27228144939392102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23731608815788</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19344282306868199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27141425010889902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.397607659263639</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.29599318272395397</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20866961505819301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.223984194716773</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24500537508664399</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24701922397061599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.38326285972679902</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28901816249508999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34329617308853799</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28926505743762398</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16821788563385201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.27243265135410899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.21102638820692199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12759176997348001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.34392336735721102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.29076633052616702</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.207266486564814</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.31750276558330298</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.27096932849791799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.23632663367693901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.28538044584640898</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.27113852677387901</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.27507480646307703</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.240962548620935</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.23667406134480601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.191623934100383</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.267666783035234</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.22687706999189899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.16197109864641401</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.36561135473300299</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.26634837477522999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.27515685056376399</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.22674290101235201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.21740017534529399</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.20678110663847599</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.18054863077274599</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.208700873335779</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.21356649213713599</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.29391133169434702</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25007705244900802</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.22403707129701</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.22700749653721899</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.25075294841025098</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.21124897669542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.20115165073108901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.201052885599797</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24167433149897699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.29420010742354902</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.20445306226121199</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.178056637488542</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.178899720729781</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.20754675349695101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.202372176871738</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.196913287264842</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.16623569587414999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.209769479480235</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.258259125928336</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.25010134955657898</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.24578821388511299</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.35340008594394801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.309747641298733</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.34765351261641703</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.33956830013814199</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.36097936804888903</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.37063619642884399</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.34933675387424401</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.27792044706938801</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.28001346926309501</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.26366190287347702</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.221921517693694</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.27167548229856597</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.34118104720079401</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.232041457053278</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.18018001345596801</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.18132687479853499</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.171804989547829</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.140488290140769</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.33279397219691098</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.25105241939740902</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.26909069172920103</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.335968779921125</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.28751241863423299</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.35132039302554402</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.41109520323014398</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.27679679624249098</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.24807288111029399</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.27623384723508398</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.37525723863210397</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.381433793785941</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.439621140941167</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.44123116408066998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.332752633625859</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.42420895854728702</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.44146446068860701</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.41714376956305699</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.44614711581371502</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.33161066042137599</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.45530751602327801</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.47996847639171097</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.38292504625964402</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.48332159472214697</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.40331842171876298</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.40216239313326302</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.42524031756004699</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.39281200879997902</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.42051728646604802</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.40382210488313602</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.46845321666603401</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.43710802922006398</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.37875925281625999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.439233406300305</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.458813066214108</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.39344671070583898</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.46102395680897001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.37668541179392201</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.39893016479362098</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.40068849762741598</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.46123081320406201</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.50426098073464098</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.51330043115704305</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.51093317321166098</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.41564238751349902</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.51090072541445097</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.519163116890898</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.50358549889265802</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.474533018646766</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.48225958426522098</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.85735401905233</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.70659063560875301</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.443776050475511</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.54343991704571704</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.52940532533641704</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.57616222515795501</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.86989654659149496</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.51183281822275295</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.50774464292500598</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.47399205090868402</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.82397003155652504</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.58235788314880699</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.57547221251721303</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.60007915465714301</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.58892220379648696</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.502971883791964</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.51463521853410299</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.51898334452051098</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.51790814066231905</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.60901666733085003</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.53450159415982001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.51318231743211695</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.58411805861616495</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.61208931955842805</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.58295153389899002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.92444447840278299</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.59449174573844998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.65890188511812198</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.90728160027031202</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.914739659387097</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.81192140769750198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.74193340460208501</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.80971693111932397</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.67549851611325995</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.91434822286696005</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.587213950843537</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.593365894927805</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.90892320901911905</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.75614639833152497</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.54618368103144599</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.59218364066557405</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.63906374776059605</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.77891111957533599</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.92214388082782905</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.72989164314594701</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.61243643123444702</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.83621608553111904</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.81338186731734896</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.62355592772524204</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.69667695526167905</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.53521113993227998</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.98551529525896298</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.87475311033174097</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.87393893957552804</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.90704098563380098</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.93422549662472398</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.63759656960812705</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.61189231665506005</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.60353241199987695</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.89295941680986402</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.0202144205621899</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.84057826574995798</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.93049096454027003</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.72406016475105694</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.87215047190420403</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.66819270427135402</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.63645068862474397</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.66282575707854596</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.73149011593731506</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.98717614044375601</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.85597103011962405</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.65172079624145196</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.0580982588069301</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.64253639547226404</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.63321447377594398</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.02269123613478</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.62358289352541596</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.64167291215285605</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.74151789104904298</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.97992972994768102</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.01757617376529</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.88275771612742904</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.0020460240339</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.75398331526819296</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.83266137826031295</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.90092003695302003</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.08356435589456</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.2405925759479399</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.07294732242958</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.0924626612761901</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.10239569037844</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.99741287604888695</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.0338953181158399</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.0671412439877901</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.94703431296323104</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.95173327584267897</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.07112056699824</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.95677076483933</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.1356881904284799</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.0729420367734801</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.0492704354686799</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.2249326815779999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.1614334938029001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.20590058208134</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.3060094383280301</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.20747012010079</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.08539347721115</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.1434900906971801</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.1991942761768699</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.1407964832656201</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.45243756042321</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.19626808779094</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.3645536107466001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.97802554713288</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.87683016892243</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.4345132379548</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.2314830859552199</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.3482692796710101</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.8935114826009001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.3637449146027401</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.0766984133730699</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.19404107509517</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.1322816941829901</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.86093924395051402</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.27374595698221</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.2524246487028201</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.3288358497475901</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.2379014406122799</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.3419299169819501</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.4560321702929799</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.11145955989659</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.3118134638910499</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.39930629865219</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.4137018521437901</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.45637376632061</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.5441187677964101</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.6618256102479101</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.39279005179284</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.7836291776738999</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.6871333340702701</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.4086354736847999</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.6493298573306201</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.7666482997431101</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.66611538507904</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.5915034571056299</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.5230498354050801</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.4673398109690901</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.0235979428830402</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.48606760860308</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.46541614439331</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.3941539643773999</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.51400061823568</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.5863886437399699</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.7162193064425599</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.6680519811955701</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.68052906226363</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.60327985558812</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.56722045554922</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.66910048459108</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.6102573298034399</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.7699309675346799</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.8638144525781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CCB-447B-AD5F-C2D8B23491A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1882442848"/>
+        <c:axId val="1882459488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1882442848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882459488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1882459488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882442848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809C4CD7-0C51-4881-83C6-385F223E394C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,7 +3254,7 @@
   <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,5 +5869,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>